--- a/output/CANVAS_28866524000189.xlsx
+++ b/output/CANVAS_28866524000189.xlsx
@@ -790,10 +790,10 @@
         <v>44165</v>
       </c>
       <c r="B37">
-        <v>0.25918507</v>
+        <v>0.2602246500000001</v>
       </c>
       <c r="C37">
-        <v>0.01926863920583655</v>
+        <v>0.0201101448090959</v>
       </c>
     </row>
   </sheetData>

--- a/output/CANVAS_28866524000189.xlsx
+++ b/output/CANVAS_28866524000189.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CANVAS VECTOR FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,414 +383,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43100</v>
       </c>
       <c r="B2">
-        <v>-0.006665710000000047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43131</v>
       </c>
       <c r="B3">
-        <v>-0.005828869999999986</v>
-      </c>
-      <c r="C3">
         <v>0.0008424555644808152</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43159</v>
       </c>
       <c r="B4">
-        <v>-0.004533629999999955</v>
-      </c>
-      <c r="C4">
         <v>0.001302834050310953</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43190</v>
       </c>
       <c r="B5">
-        <v>0.009754330000000033</v>
-      </c>
-      <c r="C5">
         <v>0.01435303133344412</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43220</v>
       </c>
       <c r="B6">
-        <v>0.01580774000000007</v>
-      </c>
-      <c r="C6">
         <v>0.005994933440889527</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43251</v>
       </c>
       <c r="B7">
-        <v>0.02263967999999994</v>
-      </c>
-      <c r="C7">
         <v>0.006725623098717382</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43281</v>
       </c>
       <c r="B8">
-        <v>0.01481730000000003</v>
-      </c>
-      <c r="C8">
         <v>-0.007649204458798131</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43312</v>
       </c>
       <c r="B9">
-        <v>0.03959427000000004</v>
-      </c>
-      <c r="C9">
         <v>0.0244152026182447</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43343</v>
       </c>
       <c r="B10">
-        <v>0.01537805000000003</v>
-      </c>
-      <c r="C10">
         <v>-0.02329391446145623</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43373</v>
       </c>
       <c r="B11">
-        <v>0.01711628999999992</v>
-      </c>
-      <c r="C11">
         <v>0.00171191409938376</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43404</v>
       </c>
       <c r="B12">
-        <v>0.03879952999999992</v>
-      </c>
-      <c r="C12">
         <v>0.02131834895693197</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43434</v>
       </c>
       <c r="B13">
-        <v>0.07573118000000001</v>
-      </c>
-      <c r="C13">
         <v>0.03555223980511446</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43465</v>
       </c>
       <c r="B14">
-        <v>0.06862232000000001</v>
-      </c>
-      <c r="C14">
         <v>-0.00660839820595327</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43496</v>
       </c>
       <c r="B15">
-        <v>0.11584744</v>
-      </c>
-      <c r="C15">
         <v>0.04419252631743653</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43524</v>
       </c>
       <c r="B16">
-        <v>0.1329065899999999</v>
-      </c>
-      <c r="C16">
         <v>0.01528806661957294</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43555</v>
       </c>
       <c r="B17">
-        <v>0.1777516400000001</v>
-      </c>
-      <c r="C17">
         <v>0.03958406667931924</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43585</v>
       </c>
       <c r="B18">
-        <v>0.2039661500000001</v>
-      </c>
-      <c r="C18">
         <v>0.0222580967919519</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43616</v>
       </c>
       <c r="B19">
-        <v>0.2321531299999999</v>
-      </c>
-      <c r="C19">
         <v>0.0234117711698123</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43646</v>
       </c>
       <c r="B20">
-        <v>0.2615961099999999</v>
-      </c>
-      <c r="C20">
         <v>0.02389555265748511</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43677</v>
       </c>
       <c r="B21">
-        <v>0.2989593100000001</v>
-      </c>
-      <c r="C21">
         <v>0.02961581737914543</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43708</v>
       </c>
       <c r="B22">
-        <v>0.2982651300000001</v>
-      </c>
-      <c r="C22">
         <v>-0.0005344124289774488</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43738</v>
       </c>
       <c r="B23">
-        <v>0.32257318</v>
-      </c>
-      <c r="C23">
         <v>0.01872348678116298</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43769</v>
       </c>
       <c r="B24">
-        <v>0.31240763</v>
-      </c>
-      <c r="C24">
         <v>-0.007686190944836802</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43799</v>
       </c>
       <c r="B25">
-        <v>0.3340505600000001</v>
-      </c>
-      <c r="C25">
         <v>0.01649101201888015</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43830</v>
       </c>
       <c r="B26">
-        <v>0.3302641500000001</v>
-      </c>
-      <c r="C26">
         <v>-0.002838280732028631</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43861</v>
       </c>
       <c r="B27">
-        <v>0.3751459500000001</v>
-      </c>
-      <c r="C27">
         <v>0.03373901341323826</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43890</v>
       </c>
       <c r="B28">
-        <v>0.3466591299999999</v>
-      </c>
-      <c r="C28">
         <v>-0.02071548841779314</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43921</v>
       </c>
       <c r="B29">
-        <v>0.17743872</v>
-      </c>
-      <c r="C29">
         <v>-0.1256594235543481</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43951</v>
       </c>
       <c r="B30">
-        <v>0.1915863799999999</v>
-      </c>
-      <c r="C30">
         <v>0.01201562319948168</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43982</v>
       </c>
       <c r="B31">
-        <v>0.2417466100000001</v>
-      </c>
-      <c r="C31">
         <v>0.04209533680638433</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44012</v>
       </c>
       <c r="B32">
-        <v>0.23131776</v>
-      </c>
-      <c r="C32">
         <v>-0.008398533095250404</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44043</v>
       </c>
       <c r="B33">
-        <v>0.2427585699999999</v>
-      </c>
-      <c r="C33">
         <v>0.009291517081666978</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>44074</v>
       </c>
       <c r="B34">
-        <v>0.2476433600000001</v>
-      </c>
-      <c r="C34">
         <v>0.003930602546559081</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>44104</v>
       </c>
       <c r="B35">
-        <v>0.2384732700000001</v>
-      </c>
-      <c r="C35">
         <v>-0.007349928909171632</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>44135</v>
       </c>
       <c r="B36">
-        <v>0.2353809600000001</v>
-      </c>
-      <c r="C36">
         <v>-0.002496872621239543</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>44165</v>
       </c>
       <c r="B37">
-        <v>0.2602246500000001</v>
-      </c>
-      <c r="C37">
-        <v>0.0201101448090959</v>
+        <v>0.02477745002642728</v>
       </c>
     </row>
   </sheetData>
